--- a/robots/consulta-fipe/result/informacoes_carros.xlsx
+++ b/robots/consulta-fipe/result/informacoes_carros.xlsx
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fevereiro de 2023</t>
+          <t>março de 2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,16 +526,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>cc8lckj37mwp</t>
+          <t>cd27mzwhlhfp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sexta-feira, 10 de fevereiro de 2023 22:25</t>
+          <t>quinta-feira, 2 de março de 2023 20:04</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>87102</v>
+        <v>89290</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fevereiro de 2023</t>
+          <t>março de 2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -571,16 +571,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>kxmwj9vkt4dd6</t>
+          <t>kwxy3w1rfzdd6</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sexta-feira, 10 de fevereiro de 2023 22:25</t>
+          <t>quinta-feira, 2 de março de 2023 20:04</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>200692</v>
+        <v>200089</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fevereiro de 2023</t>
+          <t>março de 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -616,16 +616,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>zc0t95ry76dqw</t>
+          <t>y940ng9m73dqw</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sexta-feira, 10 de fevereiro de 2023 22:26</t>
+          <t>quinta-feira, 2 de março de 2023 20:04</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>530237</v>
+        <v>528646</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>

--- a/robots/consulta-fipe/result/informacoes_carros.xlsx
+++ b/robots/consulta-fipe/result/informacoes_carros.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>quinta-feira, 2 de março de 2023 20:04</t>
+          <t>sexta-feira, 3 de março de 2023 19:47</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>quinta-feira, 2 de março de 2023 20:04</t>
+          <t>sexta-feira, 3 de março de 2023 19:48</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>quinta-feira, 2 de março de 2023 20:04</t>
+          <t>sexta-feira, 3 de março de 2023 19:48</t>
         </is>
       </c>
       <c r="H4" t="n">
